--- a/Demo/src/main/java/demo/resources/Data.xlsx
+++ b/Demo/src/main/java/demo/resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14010" windowHeight="3360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -30,15 +31,6 @@
     <t>Stand Alone Test</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>GHI</t>
-  </si>
-  <si>
     <t>JKL</t>
   </si>
   <si>
@@ -70,6 +62,15 @@
   </si>
   <si>
     <t>Ind</t>
+  </si>
+  <si>
+    <t>golu123@gmail.com</t>
+  </si>
+  <si>
+    <t>Golu@123</t>
+  </si>
+  <si>
+    <t>ZARA COAT 3</t>
   </si>
 </sst>
 </file>
@@ -425,7 +426,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -441,66 +442,69 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/Demo/src/main/java/demo/resources/Data.xlsx
+++ b/Demo/src/main/java/demo/resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14010" windowHeight="3360"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14010" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,27 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>Purchase Order</t>
-  </si>
-  <si>
     <t>Sample Test</t>
   </si>
   <si>
     <t>Stand Alone Test</t>
-  </si>
-  <si>
-    <t>JKL</t>
-  </si>
-  <si>
-    <t>MNO</t>
-  </si>
-  <si>
-    <t>PQR</t>
   </si>
   <si>
     <t>Email</t>
@@ -423,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -442,64 +430,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
